--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prafull Wahatule\Desktop\Booking Analysis\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E1166-3FB4-401F-8801-090ADBCEE1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ACDCAC-6755-426C-B461-AD11247B3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{982E9D42-EB19-4268-B625-6FDCA404ACAD}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="248">
   <si>
     <t>Rows After</t>
   </si>
@@ -383,12 +383,6 @@
     <t>Cancellation Rate (%) = DIVIDE([Canceled Bookings],[Total Booking],0)</t>
   </si>
   <si>
-    <t>Canceled Bookings</t>
-  </si>
-  <si>
-    <t>Canceled Bookings = CALCULATE(COUNT('Hotel Bookings'[booking_id]),'Hotel Bookings'[is_canceled] = 1)</t>
-  </si>
-  <si>
     <t>Repeat Guest Rate (%)</t>
   </si>
   <si>
@@ -554,48 +548,18 @@
     <t>Channel Revenue Contribution %</t>
   </si>
   <si>
-    <t>Clustered Bar Chart</t>
-  </si>
-  <si>
     <t>Bar Chart</t>
   </si>
   <si>
-    <t>Tree Map</t>
-  </si>
-  <si>
     <t>Column Chart</t>
   </si>
   <si>
-    <t>reserved_room_type, assigned_room_type</t>
-  </si>
-  <si>
-    <t>distribution_channel, adr</t>
-  </si>
-  <si>
     <t>market_segment, adr</t>
   </si>
   <si>
-    <t>Reserved vs Assigned Room Type</t>
-  </si>
-  <si>
-    <t>Meal Plan Share (BB, HB, FB, SC)</t>
-  </si>
-  <si>
-    <t>Distribution Channel Performance</t>
-  </si>
-  <si>
-    <t>Agent-wise Booking Count</t>
-  </si>
-  <si>
     <t>ADR by Market Segment</t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Meal Plan</t>
-  </si>
-  <si>
     <t>Distribution Channel</t>
   </si>
   <si>
@@ -617,12 +581,6 @@
     <t>Top Preferred Meal Plan</t>
   </si>
   <si>
-    <t>Cancellation Rate by Channel</t>
-  </si>
-  <si>
-    <t>Finds unreliable channels with high cancellations.</t>
-  </si>
-  <si>
     <t>Shows which room type generates the highest revenue (profitability focus).</t>
   </si>
   <si>
@@ -644,40 +602,10 @@
     <t>Insight / Purpose</t>
   </si>
   <si>
-    <t>Identify mismatches or upgrades (Room Change %) — operational efficiency.</t>
-  </si>
-  <si>
-    <t>Shows which meal plans are most preferred by guests (Meal Plan Popularity %).</t>
-  </si>
-  <si>
-    <t>Channel-wise ADR comparison — helps find the most profitable booking channels.</t>
-  </si>
-  <si>
-    <t>Quickly visualize which agents bring in the most bookings.</t>
-  </si>
-  <si>
-    <t>Understand pricing and customer behavior per market type (e.g., Direct, Corporate).</t>
-  </si>
-  <si>
     <t>Revenue by Room Type</t>
   </si>
   <si>
-    <t>See which room generates the most revenue.</t>
-  </si>
-  <si>
-    <t>Channel-wise Cancellation Rate</t>
-  </si>
-  <si>
-    <t>Stacked Column / 100% Stacked Column</t>
-  </si>
-  <si>
-    <t>Find unreliable channels with high cancellations.</t>
-  </si>
-  <si>
     <t>assigned_room_type, adr</t>
-  </si>
-  <si>
-    <t>distribution_channel, is_canceled</t>
   </si>
   <si>
     <t>1. Overview &amp; Key Insights Dashboard</t>
@@ -892,14 +820,116 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>Shows total number of bookings made by guests (including canceled &amp; non-canceled).</t>
+  </si>
+  <si>
+    <t>Indicates total number of people (Adults + Children + Babies) who booked. Helps analyze guest volume.</t>
+  </si>
+  <si>
+    <t>Calculates total revenue earned from non-canceled bookings. Formula = ADR × Total Nights.</t>
+  </si>
+  <si>
+    <t>Shows % of bookings canceled — helps identify booking reliability and customer behavior.</t>
+  </si>
+  <si>
+    <t>Percentage of guests who have booked more than once — indicates customer loyalty.</t>
+  </si>
+  <si>
+    <t>Shows the Average Daily Rate (ADR) per booking — helps in evaluating pricing efficiency.</t>
+  </si>
+  <si>
+    <t>Shows the total number of guests who stayed or booked — helps analyze overall footfall.</t>
+  </si>
+  <si>
+    <t>Indicates the loyalty rate — percentage of guests who booked more than once.</t>
+  </si>
+  <si>
+    <t>Calculates the average number of days between booking and arrival for each customer type — helps understand booking behavior.</t>
+  </si>
+  <si>
+    <t>Measures the average number of people per booking, useful for planning room allocation and services.</t>
+  </si>
+  <si>
+    <t>Shows how booking volume and cancellations vary month by month — identifies peak and off-season trends.</t>
+  </si>
+  <si>
+    <t>Analyzes relationship between room rates (ADR) and how early customers book — helps in pricing strategy</t>
+  </si>
+  <si>
+    <t>Displays the proportion of bookings between City and Resort hotels — indicates business vs leisure preference.</t>
+  </si>
+  <si>
+    <t>Shows how many bookings were Canceled, Checked Out, or No-Show — useful for operational performance.</t>
+  </si>
+  <si>
+    <t>Shows share of different customer types — helps understand booking behavior and market segmentation.</t>
+  </si>
+  <si>
+    <t>Compares repeat and first-time guests — reveals loyalty trends and retention rate.</t>
+  </si>
+  <si>
+    <t>Tracks how early guests book across months — useful for demand forecasting.</t>
+  </si>
+  <si>
+    <t>Highlights which customer types tend to cancel more — helps optimize booking policies.</t>
+  </si>
+  <si>
+    <t>Displays geographical distribution of guests — identifies top countries contributing to bookings.</t>
+  </si>
+  <si>
+    <t>Total Booking By Meal</t>
+  </si>
+  <si>
+    <t>meal, total booking</t>
+  </si>
+  <si>
+    <t>Distribution Channel With Cancellation %</t>
+  </si>
+  <si>
+    <t>distribution_channel, cancellation Rate %, Total Revenue</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Meal by Popularity</t>
+  </si>
+  <si>
+    <t>Meal, Meal Plan By Popularity</t>
+  </si>
+  <si>
+    <t>Total Booking  by Distribution Channel-wise Cancellation Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution_channel, is_canceled, total booking, </t>
+  </si>
+  <si>
+    <t>Shows which meal plan (BB, HB, FB, SC) has the highest share of total bookings — helps identify guest meal preferences.</t>
+  </si>
+  <si>
+    <t>Compares cancellation rate and revenue contribution by each booking channel — useful for identifying unreliable or profitable sources.</t>
+  </si>
+  <si>
+    <t>Displays the popularity of each meal type based on percentage share — highlights customer preferences.</t>
+  </si>
+  <si>
+    <t>Analyzes Average Daily Rate (ADR) across different market segments — helps evaluate pricing strategy and target markets.</t>
+  </si>
+  <si>
+    <t>Shows revenue contribution by each room type — identifies top-performing room categories.</t>
+  </si>
+  <si>
+    <t>Visualizes booking trends by channel over time, highlighting shifts in cancellations and overall performance.</t>
+  </si>
+  <si>
+    <t>Ribbon Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,29 +985,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,18 +1035,54 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,12 +1131,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1122,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,46 +1209,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,11 +1237,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC310175-FF74-49CD-BEDC-3226069E4333}">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="111" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2657,13 +2701,14 @@
     <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="134.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="126.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="152" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="152.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -2671,744 +2716,742 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="20.399999999999999">
-      <c r="B2" s="36" t="s">
-        <v>211</v>
+      <c r="B2" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="C2" s="21"/>
-      <c r="D2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="38" t="s">
+      <c r="D2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.6">
+      <c r="D4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15.6">
-      <c r="D4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="15.6">
-      <c r="D5" s="24">
+    <row r="5" spans="2:21" ht="18">
+      <c r="D5" s="42">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5">
+      <c r="F5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" t="s">
-        <v>129</v>
+      <c r="K5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="Q5" s="6">
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="U5" s="22"/>
     </row>
-    <row r="6" spans="2:21" ht="16.2">
-      <c r="D6" s="24">
+    <row r="6" spans="2:21" ht="18">
+      <c r="D6" s="42">
         <v>2</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6">
+      <c r="F6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" t="s">
-        <v>130</v>
+      <c r="K6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="Q6" s="6">
         <v>2</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="2:21" ht="15.6">
-      <c r="D7" s="24">
+    <row r="7" spans="2:21" ht="18">
+      <c r="D7" s="42">
         <v>3</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7">
+      <c r="F7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="6">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" s="27" t="s">
+      <c r="K7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
-        <v>131</v>
+      <c r="M7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="Q7" s="6">
         <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="U7" s="22"/>
     </row>
-    <row r="8" spans="2:21" ht="15.6">
-      <c r="D8" s="24">
+    <row r="8" spans="2:21" ht="18">
+      <c r="D8" s="42">
         <v>4</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8">
+      <c r="F8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="6">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" t="s">
-        <v>132</v>
+      <c r="K8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="U8" s="22"/>
     </row>
-    <row r="9" spans="2:21" ht="15.6">
-      <c r="D9" s="24">
+    <row r="9" spans="2:21" ht="18">
+      <c r="D9" s="42">
         <v>5</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15.6">
+      <c r="D10" s="42">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25" t="s">
+      <c r="F10" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.6">
-      <c r="D10" s="24">
-        <v>6</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="11" spans="2:21">
-      <c r="D11" s="24">
-        <v>7</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>114</v>
-      </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="12" spans="2:21">
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:21" ht="20.399999999999999">
-      <c r="B13" s="36" t="s">
-        <v>212</v>
+      <c r="B13" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
+      <c r="D13" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="I13" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>134</v>
+      <c r="I13" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:21">
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:21" ht="15.6">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="46" t="s">
+      <c r="K15" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="S15" s="46" t="s">
-        <v>136</v>
+      <c r="R15" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18">
-      <c r="D16">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16">
+      <c r="E16" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>133</v>
+      <c r="K16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="S16" s="47" t="s">
+      <c r="R16" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="18">
-      <c r="D17">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" s="27"/>
+      <c r="E17" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="Q17" s="6">
         <v>2</v>
       </c>
-      <c r="R17" s="47" t="s">
+      <c r="R17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="18">
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="2:23" ht="18">
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="18">
+      <c r="G20" s="23"/>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S17" s="47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.6">
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" t="s">
-        <v>159</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="2:23" ht="15.6">
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="L20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="15.6">
-      <c r="G20" s="23"/>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" ht="15.6">
+      <c r="N20" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
       <c r="G21" s="23"/>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="22" spans="2:23">
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:23" ht="20.399999999999999">
-      <c r="B23" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="P23" s="38" t="s">
+      <c r="B23" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="18">
+      <c r="D25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="Q25" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="S25" s="38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.6">
-      <c r="D25" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="N25" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="O25" s="33"/>
-      <c r="Q25" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="S25" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.6">
+    <row r="26" spans="2:23" ht="18">
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="52">
         <v>1</v>
       </c>
-      <c r="K26" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="O26" s="34"/>
+      <c r="K26" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" s="27"/>
       <c r="Q26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="2:23" ht="15.6">
+    <row r="27" spans="2:23" ht="18">
       <c r="D27" s="6">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="J27" s="6">
+      <c r="J27" s="52">
         <v>2</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O27" s="34"/>
+      <c r="K27" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" s="27"/>
       <c r="Q27" s="6">
-        <v>2</v>
-      </c>
-      <c r="R27" s="49" t="s">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="2:23" ht="15.6">
+    <row r="28" spans="2:23" ht="18">
       <c r="D28" s="6">
         <v>3</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="52">
         <v>3</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O28" s="34"/>
-      <c r="Q28" s="6">
-        <v>3</v>
-      </c>
-      <c r="R28" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K28" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="N28" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" s="27"/>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:23" ht="15.6">
+    <row r="29" spans="2:23" ht="18">
       <c r="D29" s="6">
         <v>4</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="J29" s="52">
+        <v>4</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="J29" s="6">
-        <v>4</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="6">
-        <v>4</v>
-      </c>
-      <c r="R29" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="N29" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" s="27"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:23" ht="15.6">
+    <row r="30" spans="2:23" ht="18">
       <c r="D30" s="6">
         <v>5</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="52">
         <v>5</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O30" s="34"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.6">
-      <c r="D31" s="6">
+      <c r="K30" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="2:23" ht="18">
+      <c r="J31" s="52">
         <v>6</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="K31" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="M32" s="27"/>
+    </row>
+    <row r="34" spans="2:19" ht="21.6">
+      <c r="B34" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="15.6">
+      <c r="D36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="J31" s="6">
-        <v>6</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="15.6">
-      <c r="J32" s="6">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" ht="21.6">
-      <c r="B34" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="P34" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" ht="15.6">
-      <c r="D36" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>108</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="S36" s="46" t="s">
-        <v>136</v>
+      <c r="R36" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="15.6">
@@ -3416,72 +3459,72 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>222</v>
+        <v>194</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>198</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
-      <c r="K37" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="L37" s="40" t="s">
-        <v>233</v>
+      <c r="K37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="6">
         <v>2</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="S37" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="31.2">
+    <row r="38" spans="2:19" ht="15.6">
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>223</v>
+        <v>195</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>199</v>
       </c>
       <c r="J38" s="2">
         <v>2</v>
       </c>
-      <c r="K38" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="L38" s="40" t="s">
-        <v>234</v>
+      <c r="K38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="6">
         <v>3</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>10</v>
@@ -3492,54 +3535,54 @@
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>224</v>
+        <v>197</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="J39" s="2">
         <v>3</v>
       </c>
-      <c r="K39" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="L39" s="40" t="s">
-        <v>235</v>
+      <c r="K39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="Q39" s="6">
         <v>4</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="S39" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:19" ht="31.2">
+    <row r="40" spans="2:19" ht="15.6">
       <c r="J40" s="2">
         <v>4</v>
       </c>
-      <c r="K40" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>236</v>
+      <c r="K40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prafull Wahatule\Desktop\Booking Analysis\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ACDCAC-6755-426C-B461-AD11247B3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E5B05-FE92-4F16-836C-55CB2562C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{982E9D42-EB19-4268-B625-6FDCA404ACAD}"/>
   </bookViews>
@@ -2693,7 +2693,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
